--- a/angular/src/assets/sampleFiles/SalesTargetPlan/ImportSalesPlanTargetTmvByDay.xlsx
+++ b/angular/src/assets/sampleFiles/SalesTargetPlan/ImportSalesPlanTargetTmvByDay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImportSalesTargetTMVByDay" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Import Sales Plan Target TMV By Day</t>
   </si>
@@ -43,7 +43,13 @@
     <t>IV</t>
   </si>
   <si>
-    <t>09/09/2022</t>
+    <t>22/09/2022</t>
+  </si>
+  <si>
+    <t>Số lượng format là: text</t>
+  </si>
+  <si>
+    <t>Ngày có format là: text có định dạng dd/mm/yyyy</t>
   </si>
 </sst>
 </file>
@@ -66,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +88,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +145,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +440,7 @@
     <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="21" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -445,7 +461,7 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -460,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +487,10 @@
     <col min="1" max="1" width="15.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="28" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -482,7 +498,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,11 +508,18 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -506,11 +529,18 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H6" s="1"/>
     </row>
   </sheetData>
